--- a/RoboMarine Docs/Book1.xlsx
+++ b/RoboMarine Docs/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\RoboFest Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\robomarine\RoboMarine Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{962ADC6E-2780-4270-AEB1-33E344F75D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF74E3B-828E-48C5-A739-94202A366E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DE0C938C-2B1B-4282-AA1F-1E1BA426BE65}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE0C938C-2B1B-4282-AA1F-1E1BA426BE65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,6 @@
     <t>Bidirectional ESC</t>
   </si>
   <si>
-    <t>Thruster fan</t>
-  </si>
-  <si>
-    <t>Thruster body 3D print</t>
-  </si>
-  <si>
     <t>Monodirectional ESC</t>
   </si>
   <si>
@@ -66,7 +60,13 @@
     <t>Total price</t>
   </si>
   <si>
-    <t>Robot frame 3D print</t>
+    <t>Thruster</t>
+  </si>
+  <si>
+    <t>Acryllic tube</t>
+  </si>
+  <si>
+    <t>Total 3D printed parts</t>
   </si>
 </sst>
 </file>
@@ -426,18 +426,18 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -464,22 +464,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4">
-        <f t="shared" ref="E4:E13" si="0">B4*C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="E4:E12" si="0">B4*C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -503,9 +503,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -516,22 +516,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
       <c r="C8" s="2"/>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9">
@@ -539,12 +539,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10">
@@ -552,12 +552,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11">
@@ -565,9 +565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14">
         <f>SUM(E3:E12)</f>
         <v>0</v>
